--- a/rhla_analysis/rhla1_6_zipf_result/k5.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k5.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1712725209825347</v>
+        <v>0.1712725209825338</v>
       </c>
       <c r="B3" t="n">
         <v>6.4533813747814</v>
@@ -480,12 +480,12 @@
         <v>0.1106585200271555</v>
       </c>
       <c r="D3" t="n">
-        <v>37.67902368553023</v>
+        <v>37.67902368553044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1545533778746812</v>
+        <v>0.1545533778746813</v>
       </c>
       <c r="B4" t="n">
         <v>16.03318779263593</v>
@@ -494,12 +494,12 @@
         <v>0.1052274270196877</v>
       </c>
       <c r="D4" t="n">
-        <v>103.7388377602226</v>
+        <v>103.7388377602225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.49175997880227</v>
+        <v>20.49175997880226</v>
       </c>
       <c r="B5" t="n">
         <v>288.6332622658492</v>
@@ -508,12 +508,12 @@
         <v>0.115071283095723</v>
       </c>
       <c r="D5" t="n">
-        <v>14.08533296136721</v>
+        <v>14.08533296136722</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1096469530600585</v>
+        <v>0.1096469530600587</v>
       </c>
       <c r="B6" t="n">
         <v>5.55006199328611</v>
@@ -522,12 +522,12 @@
         <v>0.1147318397827563</v>
       </c>
       <c r="D6" t="n">
-        <v>50.61756700385548</v>
+        <v>50.61756700385541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.184493969146792</v>
+        <v>3.1844939691468</v>
       </c>
       <c r="B7" t="n">
         <v>69.35476750275285</v>
@@ -536,12 +536,12 @@
         <v>0.09640190088255261</v>
       </c>
       <c r="D7" t="n">
-        <v>21.77889742442652</v>
+        <v>21.77889742442646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.386181134804241</v>
+        <v>2.38618113480422</v>
       </c>
       <c r="B8" t="n">
         <v>23.52425753673107</v>
@@ -550,12 +550,12 @@
         <v>0.1181262729124236</v>
       </c>
       <c r="D8" t="n">
-        <v>9.858538060506863</v>
+        <v>9.85853806050695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1541437444826361</v>
+        <v>0.1541437444826369</v>
       </c>
       <c r="B9" t="n">
         <v>8.24026560730022</v>
@@ -564,26 +564,26 @@
         <v>0.1011541072640869</v>
       </c>
       <c r="D9" t="n">
-        <v>53.45831992701114</v>
+        <v>53.45831992701086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1145845332546205</v>
+        <v>0.1145845332546207</v>
       </c>
       <c r="B10" t="n">
-        <v>4.299913387854464</v>
+        <v>4.299913387854465</v>
       </c>
       <c r="C10" t="n">
         <v>0.1086218601493551</v>
       </c>
       <c r="D10" t="n">
-        <v>37.52612386437482</v>
+        <v>37.52612386437476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4766507498379147</v>
+        <v>0.476650749837915</v>
       </c>
       <c r="B11" t="n">
         <v>21.03905047209853</v>
@@ -592,7 +592,7 @@
         <v>0.1045485403937542</v>
       </c>
       <c r="D11" t="n">
-        <v>44.13934202191619</v>
+        <v>44.13934202191616</v>
       </c>
     </row>
   </sheetData>
